--- a/src/main/resources/template/testTemplate.xlsx
+++ b/src/main/resources/template/testTemplate.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>${name}</t>
   </si>
@@ -40,6 +40,9 @@
     <t>${sex}</t>
   </si>
   <si>
+    <t>${express}</t>
+  </si>
+  <si>
     <t>#{list.name}</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t>#{list.sex}</t>
+  </si>
+  <si>
+    <t>#{list.express}</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -432,6 +438,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -561,7 +580,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -573,34 +592,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
@@ -685,14 +704,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,37 +1034,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
